--- a/data/material_unit.xlsx
+++ b/data/material_unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>修改成功</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -1084,17 +1087,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="24.9916666666667" customWidth="1"/>
     <col min="2" max="2" width="28.0166666666667" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26.725" customWidth="1"/>
     <col min="4" max="4" width="42.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="58.875" customWidth="1"/>
@@ -1286,6 +1289,11 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="/material_unit/list"/>
